--- a/doc/options.xlsx
+++ b/doc/options.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vizha\Documents\javascript\star-trek-adventures\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9ADD00-1D9B-4082-9D43-4B2DB461D49B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9B129A-5F91-494D-9F95-3A68CA94108C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="8" xr2:uid="{D445157F-2575-4AC8-8D6C-5820EF4A9821}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{D445157F-2575-4AC8-8D6C-5820EF4A9821}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
-    <sheet name="Environment" sheetId="2" r:id="rId2"/>
-    <sheet name="Upbringing" sheetId="3" r:id="rId3"/>
-    <sheet name="Academy" sheetId="4" r:id="rId4"/>
-    <sheet name="Career" sheetId="5" r:id="rId5"/>
-    <sheet name="Career Events" sheetId="6" r:id="rId6"/>
-    <sheet name="Talent list" sheetId="7" r:id="rId7"/>
-    <sheet name="Attributes list" sheetId="8" r:id="rId8"/>
-    <sheet name="Disciplines list" sheetId="9" r:id="rId9"/>
+    <sheet name="Species rolls" sheetId="10" r:id="rId2"/>
+    <sheet name="Environment" sheetId="2" r:id="rId3"/>
+    <sheet name="Upbringing" sheetId="3" r:id="rId4"/>
+    <sheet name="Academy" sheetId="4" r:id="rId5"/>
+    <sheet name="Career" sheetId="5" r:id="rId6"/>
+    <sheet name="Career Events" sheetId="6" r:id="rId7"/>
+    <sheet name="Talent list" sheetId="7" r:id="rId8"/>
+    <sheet name="Attributes list" sheetId="8" r:id="rId9"/>
+    <sheet name="Disciplines list" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="242">
   <si>
     <t>Andorian</t>
   </si>
@@ -139,54 +140,6 @@
     <t>Talents</t>
   </si>
   <si>
-    <t>Proud and Honorable, The Ushaan</t>
-  </si>
-  <si>
-    <t>Control, Daring, Presence</t>
-  </si>
-  <si>
-    <t>Control, Daring, Insight</t>
-  </si>
-  <si>
-    <t>Orb Experience, Strong Pagh</t>
-  </si>
-  <si>
-    <t>Insight, Presence, Reason</t>
-  </si>
-  <si>
-    <t>Empath, Telepath</t>
-  </si>
-  <si>
-    <t>Fitness, Insight, Reason</t>
-  </si>
-  <si>
-    <t>Cultural Felxibility, Parent Figure</t>
-  </si>
-  <si>
-    <t>Any 3</t>
-  </si>
-  <si>
-    <t>Resolute, Spirit of Discovery</t>
-  </si>
-  <si>
-    <t>Control, Fitness, Insight</t>
-  </si>
-  <si>
-    <t>Incisive Scrutiny, Strudy</t>
-  </si>
-  <si>
-    <t>Control, Presence, Reason</t>
-  </si>
-  <si>
-    <t>Former Initiate, Joined</t>
-  </si>
-  <si>
-    <t>Control, Fitness, Reason</t>
-  </si>
-  <si>
-    <t>Kolinahr, Mind-meld, Nerve Pinch</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -646,9 +599,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
     <t>Bold</t>
   </si>
   <si>
@@ -679,51 +629,30 @@
     <t>Advisor</t>
   </si>
   <si>
-    <t>Command 2</t>
-  </si>
-  <si>
     <t>Defuse the tension</t>
   </si>
   <si>
-    <t>Command 3</t>
-  </si>
-  <si>
     <t>Supervisor</t>
   </si>
   <si>
     <t>Fly-by</t>
   </si>
   <si>
-    <t>Conn 2</t>
-  </si>
-  <si>
     <t>Precise Evasion</t>
   </si>
   <si>
-    <t>Conn 4</t>
-  </si>
-  <si>
     <t>Push the Limits</t>
   </si>
   <si>
     <t>Starship Expert</t>
   </si>
   <si>
-    <t>Conn 3</t>
-  </si>
-  <si>
     <t>Close Protection</t>
   </si>
   <si>
-    <t>Security 4</t>
-  </si>
-  <si>
     <t>Interrogation</t>
   </si>
   <si>
-    <t>Security 3</t>
-  </si>
-  <si>
     <t>Mean Right Hook</t>
   </si>
   <si>
@@ -736,58 +665,109 @@
     <t>A Little More Power</t>
   </si>
   <si>
-    <t>Engineering 3</t>
-  </si>
-  <si>
     <t>I Know My Ship</t>
   </si>
   <si>
-    <t>Engineering 4</t>
-  </si>
-  <si>
     <t>In the Nick of Time</t>
   </si>
   <si>
     <t>Intense Scrunity</t>
   </si>
   <si>
-    <t>Engineering 3 or Science 3</t>
-  </si>
-  <si>
     <t>Jury-rig</t>
   </si>
   <si>
     <t>Computer Expertise</t>
   </si>
   <si>
-    <t>Science 2</t>
-  </si>
-  <si>
     <t>Testing a Theory</t>
   </si>
   <si>
-    <t>Engineering 2 or Science 2</t>
-  </si>
-  <si>
     <t>Doctor's Orders</t>
   </si>
   <si>
-    <t>Medicine 4</t>
-  </si>
-  <si>
     <t>Field Medicine</t>
   </si>
   <si>
     <t>First Response</t>
   </si>
   <si>
-    <t>Medicine 3</t>
-  </si>
-  <si>
     <t>Quick Study</t>
   </si>
   <si>
     <t>Triage</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>req1</t>
+  </si>
+  <si>
+    <t>req2</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Requirement1</t>
+  </si>
+  <si>
+    <t>Requirement2</t>
+  </si>
+  <si>
+    <t>Proud and Honorable</t>
+  </si>
+  <si>
+    <t>Orb Experience</t>
+  </si>
+  <si>
+    <t>Empath</t>
+  </si>
+  <si>
+    <t>Cultural Felxibility</t>
+  </si>
+  <si>
+    <t>Resolute</t>
+  </si>
+  <si>
+    <t>Incisive Scrutiny</t>
+  </si>
+  <si>
+    <t>Former Initiate</t>
+  </si>
+  <si>
+    <t>Kolinahr</t>
+  </si>
+  <si>
+    <t>The Ushaan</t>
+  </si>
+  <si>
+    <t>Strong Pagh</t>
+  </si>
+  <si>
+    <t>Telepath</t>
+  </si>
+  <si>
+    <t>Parent Figure</t>
+  </si>
+  <si>
+    <t>Spirit of Discovery</t>
+  </si>
+  <si>
+    <t>Strudy</t>
+  </si>
+  <si>
+    <t>Joined</t>
+  </si>
+  <si>
+    <t>Mind-meld</t>
+  </si>
+  <si>
+    <t>Nerve Pinch</t>
   </si>
 </sst>
 </file>
@@ -823,10 +803,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,10 +1123,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B9C135-3F2B-4064-A834-195FF841FC5E}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f>VLOOKUP(B2,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(C2,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP(D2,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>VLOOKUP(B3,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(C3,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP(D3,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f>VLOOKUP(B4,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP(C4,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP(D4,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <f>VLOOKUP(B5,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(C5,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP(D5,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f>VLOOKUP(B7,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>VLOOKUP(C7,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP(D7,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <f>VLOOKUP(B8,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(C8,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP(D8,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <f>VLOOKUP(B9,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP(C9,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP(D9,'Attributes list'!$A$1:$B$6, 2, FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="str">
+        <f>_xlfn.CONCAT("{""name"":""", A22, """,", """attrs"":[", B12, ",", C12, ",", D12, "],","""speciesTalents"":[", """", E2, """,", """", F2, """","],", """exValue"":""", H2, """", "}")</f>
+        <v>{"name":"Andorian","attrs":[0,1,4],"speciesTalents":["Proud and Honorable","The Ushaan"],"exValue":"Proud Son/Daughter of Andoria"}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" ref="B23:B29" si="0">_xlfn.CONCAT("{""name"":""", A23, """,", """attrs"":[", B13, ",", C13, ",", D13, "],","""speciesTalents"":[", """", E3, """,", """", F3, """","],", """exValue"":""", H3, """", "}")</f>
+        <v>{"name":"Bajorian","attrs":[0,1,3],"speciesTalents":["Orb Experience","Strong Pagh"],"exValue":"Faith in the Prophets"}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Betazoid","attrs":[3,4,5],"speciesTalents":["Empath","Telepath"],"exValue":"Compassion through Understanding"}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Denobulan","attrs":[2,3,5],"speciesTalents":["Cultural Felxibility","Parent Figure"],"exValue":"Safety in Numbers"}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Human","attrs":[,,],"speciesTalents":["Resolute","Spirit of Discovery"],"exValue":"The Drive for Exploration"}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Tellarite","attrs":[0,2,3],"speciesTalents":["Incisive Scrutiny","Strudy"],"exValue":"All Ideas must Withstand Scrutiny"}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Trill","attrs":[0,4,5],"speciesTalents":["Former Initiate","Joined"],"exValue":"Four Lifetimes of Adventure"}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Vulcan","attrs":[0,2,5],"speciesTalents":["Kolinahr","Mind-meld"],"exValue":"The Needs of the Many Outweigh the Needs of the Few, or the One"}</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AE9B14-DFD5-4B44-8E8C-1EB6DCEFFA21}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C693812-2627-473B-8B3E-67C2ADD64963}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1153,12 +1629,9 @@
     <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1171,17 +1644,8 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1194,51 +1658,24 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1251,17 +1688,8 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1274,17 +1702,8 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1297,17 +1716,8 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1317,17 +1727,8 @@
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1339,15 +1740,6 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1355,12 +1747,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCF0B8B-6D73-4E71-92BE-AB1F2BD62168}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1379,10 +1771,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1393,10 +1785,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1407,10 +1799,10 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1421,10 +1813,10 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1435,10 +1827,10 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1449,10 +1841,10 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1463,45 +1855,45 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5C04D1-8BDA-4A07-88A5-37EAA53DCA89}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -1528,22 +1920,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1551,19 +1943,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1571,19 +1963,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1591,19 +1983,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1611,19 +2003,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1631,19 +2023,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1651,19 +2043,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +2063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12658C-96DB-47CD-9EFB-4CA3642E7A93}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -1691,13 +2083,13 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1705,13 +2097,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1719,13 +2111,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1733,53 +2125,53 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1787,7 +2179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C188F2-B199-4961-90CE-140F96A68097}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -1803,85 +2195,85 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1889,7 +2281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DD4F12-BDA1-47C2-A507-37458DA38FE3}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -1907,19 +2299,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1927,16 +2319,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1944,16 +2336,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1961,16 +2353,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1978,16 +2370,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1995,16 +2387,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -2012,16 +2404,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2029,16 +2421,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2046,16 +2438,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2063,16 +2455,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -2080,16 +2472,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -2097,16 +2489,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
         <v>173</v>
-      </c>
-      <c r="E12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -2114,16 +2506,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -2131,16 +2523,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -2148,16 +2540,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
         <v>153</v>
       </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -2165,16 +2557,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -2182,16 +2574,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -2199,16 +2591,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -2216,16 +2608,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
         <v>178</v>
       </c>
-      <c r="D19" t="s">
-        <v>194</v>
-      </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -2233,16 +2625,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -2250,268 +2642,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
         <v>159</v>
       </c>
-      <c r="C21" t="s">
-        <v>175</v>
-      </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CD95E0-EA7B-40AD-A8D0-D31689F2046D}">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>237</v>
-      </c>
-      <c r="B27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>238</v>
-      </c>
-      <c r="B28" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>240</v>
-      </c>
-      <c r="B29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B30" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>248</v>
-      </c>
-      <c r="B34" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2520,88 +2660,1077 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CD95E0-EA7B-40AD-A8D0-D31689F2046D}">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="91.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" t="e">
+        <f>VLOOKUP(B2,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(ISNA(F2), "", _xlfn.CONCAT("{""dcp"":", F2, ",""min"":",C2, "}"))</f>
+        <v/>
+      </c>
+      <c r="H2" t="e">
+        <f>VLOOKUP(D2,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I34" si="0">IF(ISNA(H2), "", _xlfn.CONCAT("{""dcp"":", H2, ",""min"":",E2, "}"))</f>
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT("{""name"":""", A2,""",""reqs"":[", G2, IF(I2&lt;&gt;"", _xlfn.CONCAT(",",I2), ""), "]}",",")</f>
+        <v>{"name":"Bold","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" t="e">
+        <f>VLOOKUP(B3,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G34" si="1">IF(ISNA(F3), "", _xlfn.CONCAT("{""dcp"":", F3, ",""min"":",C3, "}"))</f>
+        <v/>
+      </c>
+      <c r="H3" t="e">
+        <f>VLOOKUP(D3,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J34" si="2">_xlfn.CONCAT("{""name"":""", A3,""",""reqs"":[", G3, IF(I3&lt;&gt;"", _xlfn.CONCAT(",",I3), ""), "]}",",")</f>
+        <v>{"name":"Cautious","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" t="e">
+        <f>VLOOKUP(B4,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H4" t="e">
+        <f>VLOOKUP(D4,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Collaboration","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" t="e">
+        <f>VLOOKUP(B5,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H5" t="e">
+        <f>VLOOKUP(D5,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Constantly Watching","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" t="e">
+        <f>VLOOKUP(B6,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H6" t="e">
+        <f>VLOOKUP(D6,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Dauntless","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" t="e">
+        <f>VLOOKUP(B7,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H7" t="e">
+        <f>VLOOKUP(D7,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Personal Effects","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" t="e">
+        <f>VLOOKUP(B8,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H8" t="e">
+        <f>VLOOKUP(D8,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Studious","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" t="e">
+        <f>VLOOKUP(B9,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" t="e">
+        <f>VLOOKUP(D9,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Technical Expertise","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" t="e">
+        <f>VLOOKUP(B10,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" t="e">
+        <f>VLOOKUP(D10,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Tough","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(B11,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":0,"min":2}</v>
+      </c>
+      <c r="H11" t="e">
+        <f>VLOOKUP(D11,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Advisor","reqs":[{"dcp":0,"min":2}]},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP(B12,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":0,"min":3}</v>
+      </c>
+      <c r="H12" t="e">
+        <f>VLOOKUP(D12,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Defuse the tension","reqs":[{"dcp":0,"min":3}]},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" t="e">
+        <f>VLOOKUP(B13,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H13" t="e">
+        <f>VLOOKUP(D13,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Supervisor","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP(B14,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":1,"min":2}</v>
+      </c>
+      <c r="H14" t="e">
+        <f>VLOOKUP(D14,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Fly-by","reqs":[{"dcp":1,"min":2}]},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(B15,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":1,"min":4}</v>
+      </c>
+      <c r="H15" t="e">
+        <f>VLOOKUP(D15,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Precise Evasion","reqs":[{"dcp":1,"min":4}]},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP(B16,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":1,"min":4}</v>
+      </c>
+      <c r="H16" t="e">
+        <f>VLOOKUP(D16,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Push the Limits","reqs":[{"dcp":1,"min":4}]},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f>VLOOKUP(B17,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":1,"min":3}</v>
+      </c>
+      <c r="H17" t="e">
+        <f>VLOOKUP(D17,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Starship Expert","reqs":[{"dcp":1,"min":3}]},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <f>VLOOKUP(B18,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":3,"min":4}</v>
+      </c>
+      <c r="H18" t="e">
+        <f>VLOOKUP(D18,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Close Protection","reqs":[{"dcp":3,"min":4}]},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP(B19,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":3,"min":3}</v>
+      </c>
+      <c r="H19" t="e">
+        <f>VLOOKUP(D19,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Interrogation","reqs":[{"dcp":3,"min":3}]},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" t="e">
+        <f>VLOOKUP(B20,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" t="e">
+        <f>VLOOKUP(D20,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Mean Right Hook","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" t="e">
+        <f>VLOOKUP(B21,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" t="e">
+        <f>VLOOKUP(D21,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Pack Tactics","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f>VLOOKUP(B22,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":3,"min":3}</v>
+      </c>
+      <c r="H22" t="e">
+        <f>VLOOKUP(D22,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Quick to Action","reqs":[{"dcp":3,"min":3}]},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f>VLOOKUP(B23,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":2,"min":3}</v>
+      </c>
+      <c r="H23" t="e">
+        <f>VLOOKUP(D23,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"A Little More Power","reqs":[{"dcp":2,"min":3}]},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <f>VLOOKUP(B24,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":2,"min":4}</v>
+      </c>
+      <c r="H24" t="e">
+        <f>VLOOKUP(D24,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"I Know My Ship","reqs":[{"dcp":2,"min":4}]},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <f>VLOOKUP(B25,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":2,"min":3}</v>
+      </c>
+      <c r="H25">
+        <f>VLOOKUP(D25,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"dcp":4,"min":3}</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"In the Nick of Time","reqs":[{"dcp":2,"min":3},{"dcp":4,"min":3}]},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <f>VLOOKUP(B26,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":2,"min":3}</v>
+      </c>
+      <c r="H26">
+        <f>VLOOKUP(D26,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>{"dcp":4,"min":3}</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Intense Scrunity","reqs":[{"dcp":2,"min":3},{"dcp":4,"min":3}]},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <f>VLOOKUP(B27,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":2,"min":4}</v>
+      </c>
+      <c r="H27" t="e">
+        <f>VLOOKUP(D27,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Jury-rig","reqs":[{"dcp":2,"min":4}]},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <f>VLOOKUP(B28,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":4,"min":2}</v>
+      </c>
+      <c r="H28" t="e">
+        <f>VLOOKUP(D28,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Computer Expertise","reqs":[{"dcp":4,"min":2}]},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP(B29,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":2,"min":2}</v>
+      </c>
+      <c r="H29">
+        <f>VLOOKUP(D29,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>{"dcp":4,"min":2}</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Testing a Theory","reqs":[{"dcp":2,"min":2},{"dcp":4,"min":2}]},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <f>VLOOKUP(B30,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":5,"min":4}</v>
+      </c>
+      <c r="H30" t="e">
+        <f>VLOOKUP(D30,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Doctor's Orders","reqs":[{"dcp":5,"min":4}]},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" t="e">
+        <f>VLOOKUP(B31,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H31" t="e">
+        <f>VLOOKUP(D31,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Field Medicine","reqs":[]},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <f>VLOOKUP(B32,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":5,"min":3}</v>
+      </c>
+      <c r="H32" t="e">
+        <f>VLOOKUP(D32,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"First Response","reqs":[{"dcp":5,"min":3}]},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <f>VLOOKUP(B33,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":5,"min":3}</v>
+      </c>
+      <c r="H33" t="e">
+        <f>VLOOKUP(D33,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Quick Study","reqs":[{"dcp":5,"min":3}]},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <f>VLOOKUP(B34,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>{"dcp":5,"min":3}</v>
+      </c>
+      <c r="H34" t="e">
+        <f>VLOOKUP(D34,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Triage","reqs":[{"dcp":5,"min":3}]},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1A7119-9866-40BD-9D0E-014BBFAE2D9D}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AE9B14-DFD5-4B44-8E8C-1EB6DCEFFA21}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>173</v>
+        <v>165</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/options.xlsx
+++ b/doc/options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vizha\Documents\javascript\star-trek-adventures\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9B129A-5F91-494D-9F95-3A68CA94108C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E89AD8-2275-4FD3-904A-BC0D4B31AAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{D445157F-2575-4AC8-8D6C-5820EF4A9821}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{D445157F-2575-4AC8-8D6C-5820EF4A9821}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="244">
   <si>
     <t>Andorian</t>
   </si>
@@ -768,6 +768,12 @@
   </si>
   <si>
     <t>Nerve Pinch</t>
+  </si>
+  <si>
+    <t>choose 1 attribute</t>
+  </si>
+  <si>
+    <t>choose 1 Discipline</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C693812-2627-473B-8B3E-67C2ADD64963}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1751,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCF0B8B-6D73-4E71-92BE-AB1F2BD62168}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1771,10 +1777,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">

--- a/doc/options.xlsx
+++ b/doc/options.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vizha\Documents\javascript\star-trek-adventures\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E89AD8-2275-4FD3-904A-BC0D4B31AAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D12E82-591C-4A6C-88EA-96BCC36A9410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{D445157F-2575-4AC8-8D6C-5820EF4A9821}"/>
   </bookViews>
@@ -1755,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCF0B8B-6D73-4E71-92BE-AB1F2BD62168}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1769,7 +1769,7 @@
     <col min="5" max="5" width="38.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1782,8 +1782,11 @@
       <c r="D1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1796,8 +1799,11 @@
       <c r="D2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1810,8 +1816,11 @@
       <c r="D3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1824,8 +1833,11 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1838,8 +1850,11 @@
       <c r="D5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1852,8 +1867,11 @@
       <c r="D6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1866,39 +1884,7 @@
       <c r="D7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="E7" t="s">
         <v>89</v>
       </c>
     </row>

--- a/doc/options.xlsx
+++ b/doc/options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vizha\Documents\javascript\star-trek-adventures\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D12E82-591C-4A6C-88EA-96BCC36A9410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8109B670-3156-48B3-8356-6E275EF17EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{D445157F-2575-4AC8-8D6C-5820EF4A9821}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="255">
   <si>
     <t>Andorian</t>
   </si>
@@ -774,6 +774,39 @@
   </si>
   <si>
     <t>choose 1 Discipline</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>0,3,4</t>
+  </si>
+  <si>
+    <t>2,4,5</t>
+  </si>
+  <si>
+    <t>1,3,5</t>
+  </si>
+  <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>"Environment":[</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1165,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1755,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCF0B8B-6D73-4E71-92BE-AB1F2BD62168}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1769,7 +1802,7 @@
     <col min="5" max="5" width="38.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1786,7 +1819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1803,7 +1836,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1820,7 +1853,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1837,7 +1870,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1854,7 +1887,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1871,7 +1904,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1886,6 +1919,151 @@
       </c>
       <c r="E7" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ref="F10" si="0">_xlfn.CONCAT("{""name"":""",B10,""",roll:",A10, ",""attributes"":[",C10,"],""disciplines"":[",D10,"],""exValue"":""",E10,"""},")</f>
+        <v>{"name":"Homeworld",roll:1,"attributes":[],"disciplines":[0,3,4],"exValue":"Body and Mind Alike Must Be Healthy"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("{""name"":""",B11,""",roll:",A11, ",""attributes"":[",C11,"],""disciplines"":[",D11,"],""exValue"":""",E11,"""},")</f>
+        <v>{"name":"Busy Colony",roll:2,"attributes":[1,4],"disciplines":[0,3,4],"exValue":"Most Comfortable in a Crowd"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" ref="F12:F15" si="1">_xlfn.CONCAT("{""name"":""",B12,""",roll:",A12, ",""attributes"":[",C12,"],""disciplines"":[",D12,"],""exValue"":""",E12,"""},")</f>
+        <v>{"name":"Isolated Colony",roll:3,"attributes":[3,5],"disciplines":[2,4,5],"exValue":"Engineer at Heart"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name":"Frontier Colony",roll:4,"attributes":[0,2],"disciplines":[1,3,5],"exValue":"No Stranger to Violence"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name":"Starship or Starbase",roll:5,"attributes":[0,3],"disciplines":[0,1,2],"exValue":"A Starship is a Home, it’s Crew a Family"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name":"Another Species' World",roll:6,"attributes":[],"disciplines":[0,1,2,3,4,5],"exValue":"Emotion in a Crisis only Makes Things Worse"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/doc/options.xlsx
+++ b/doc/options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vizha\Documents\javascript\star-trek-adventures\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8109B670-3156-48B3-8356-6E275EF17EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD50AD8-0529-43BE-9B08-D8E5B5AEE295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{D445157F-2575-4AC8-8D6C-5820EF4A9821}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{D445157F-2575-4AC8-8D6C-5820EF4A9821}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="252">
   <si>
     <t>Andorian</t>
   </si>
@@ -347,27 +347,6 @@
     <t>Example values</t>
   </si>
   <si>
-    <t>Inexperienced and Idealistic</t>
-  </si>
-  <si>
-    <t>Threw Out The Handbook and Wrote My Own</t>
-  </si>
-  <si>
-    <t>Always Prepared, Always Vigilant</t>
-  </si>
-  <si>
-    <t>Precise to a Fault</t>
-  </si>
-  <si>
-    <t>Fast Ships and Strange New Worlds</t>
-  </si>
-  <si>
-    <t>Exploring to Test New Theories</t>
-  </si>
-  <si>
-    <t>A Theory For Every Situation</t>
-  </si>
-  <si>
     <t>Example focuses</t>
   </si>
   <si>
@@ -807,6 +786,18 @@
   </si>
   <si>
     <t>]</t>
+  </si>
+  <si>
+    <t>"Fast Ships and Strange New Worlds", "Threw Out The Handbook and Wrote My Own"</t>
+  </si>
+  <si>
+    <t>"Always Prepared, Always Vigilant", "Precise to a Fault"</t>
+  </si>
+  <si>
+    <t>"Exploring to Test New Theories", "A Theory For Every Situation"</t>
+  </si>
+  <si>
+    <t>"Academy": [</t>
   </si>
 </sst>
 </file>
@@ -1198,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H2" t="s">
         <v>78</v>
@@ -1221,19 +1212,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H3" t="s">
         <v>79</v>
@@ -1244,19 +1235,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H4" t="s">
         <v>80</v>
@@ -1267,19 +1258,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H5" t="s">
         <v>81</v>
@@ -1290,10 +1281,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H6" t="s">
         <v>82</v>
@@ -1304,19 +1295,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H7" t="s">
         <v>83</v>
@@ -1327,19 +1318,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
         <v>84</v>
@@ -1350,22 +1341,22 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G9" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H9" t="s">
         <v>86</v>
@@ -1508,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1611,7 +1602,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1619,7 +1610,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1627,7 +1618,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1635,7 +1626,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1643,7 +1634,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1790,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCF0B8B-6D73-4E71-92BE-AB1F2BD62168}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1810,10 +1801,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E1" t="s">
         <v>100</v>
@@ -1929,16 +1920,16 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1949,7 +1940,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E10" t="s">
         <v>92</v>
@@ -1967,10 +1958,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E11" t="s">
         <v>91</v>
@@ -1988,10 +1979,10 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E12" t="s">
         <v>90</v>
@@ -2009,10 +2000,10 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
@@ -2030,10 +2021,10 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -2051,7 +2042,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E15" t="s">
         <v>89</v>
@@ -2063,7 +2054,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2235,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12658C-96DB-47CD-9EFB-4CA3642E7A93}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2248,7 +2239,7 @@
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2259,10 +2250,13 @@
         <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2273,10 +2267,13 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2287,10 +2284,13 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2301,47 +2301,98 @@
         <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="F7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="E8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("{""rolls:[1,2],name:""",B8,""",exFocuses"":""",D8, """,""exValues"":",E8,"}")</f>
+        <v>{"rolls:[1,2],name:"Command",exFocuses":"Astronavigation, Composure, Diplomacy, Extra-Vehicular Activity, Evasive Action, Helm Operations, Inspiration, Persuasion, Small Craft, Starship Recognition, Starfleet Protocols, Team Dynamics","exValues":"Fast Ships and Strange New Worlds", "Threw Out The Handbook and Wrote My Own"}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="E9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("{""rolls:[3,4],name:""",B9,""",exFocuses"":""",D9, """,""exValues"":",E9,"}")</f>
+        <v>{"rolls:[3,4],name:"Operations",exFocuses":"Computers, Cybernetics, Electro-Plasma Power Systems, Espionage, Hand Phasers, Hand-to-Hand Combat, Infiltration, Interrogation, Shipboard Tactical Systems, Survival, Transporters &amp; Replicators, Warp Field Dynamics.","exValues":"Always Prepared, Always Vigilant", "Precise to a Fault"}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>107</v>
+      <c r="E10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("{""rolls:[5,6],name:""",B10,""",exFocuses"":""",D10, """,""exValues"":",E10,"}")</f>
+        <v>{"rolls:[5,6],name:"Sciences",exFocuses":"Anthropology, Astrophysics, Botany, Computers, Cybernetics, Emergency Medicine, Exo-tectonics, Genetics, Geology, Infectious Diseases, Linguistics, Physics, Psychiatry, Quantum Mechanics, Trauma Surgery, Virology, Warp Field Dynamics, Xenobiology","exValues":"Exploring to Test New Theories", "A Theory For Every Situation"}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2365,40 +2416,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2408,42 +2459,42 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2469,10 +2520,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
         <v>32</v>
@@ -2481,7 +2532,7 @@
         <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2489,16 +2540,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2506,16 +2557,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -2523,16 +2574,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -2540,16 +2591,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
         <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -2557,16 +2608,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
         <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -2574,16 +2625,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2591,16 +2642,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2608,16 +2659,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2625,16 +2676,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -2642,16 +2693,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -2659,16 +2710,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -2676,16 +2727,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -2693,16 +2744,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -2710,16 +2761,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -2727,16 +2778,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -2744,16 +2795,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -2761,16 +2812,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -2778,16 +2829,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -2795,16 +2846,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -2812,16 +2863,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2850,35 +2901,35 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F2" t="e">
         <f>VLOOKUP(B2,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -2903,7 +2954,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F3" t="e">
         <f>VLOOKUP(B3,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -2928,7 +2979,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F4" t="e">
         <f>VLOOKUP(B4,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -2953,7 +3004,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F5" t="e">
         <f>VLOOKUP(B5,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -2978,7 +3029,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F6" t="e">
         <f>VLOOKUP(B6,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -3003,7 +3054,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F7" t="e">
         <f>VLOOKUP(B7,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -3028,7 +3079,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F8" t="e">
         <f>VLOOKUP(B8,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -3053,7 +3104,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F9" t="e">
         <f>VLOOKUP(B9,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -3078,7 +3129,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F10" t="e">
         <f>VLOOKUP(B10,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -3103,7 +3154,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -3134,7 +3185,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -3165,7 +3216,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F13" t="e">
         <f>VLOOKUP(B13,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -3190,10 +3241,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -3221,10 +3272,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C15" s="4">
         <v>4</v>
@@ -3252,10 +3303,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C16" s="4">
         <v>4</v>
@@ -3283,10 +3334,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
@@ -3314,10 +3365,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
@@ -3345,10 +3396,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -3376,7 +3427,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F20" t="e">
         <f>VLOOKUP(B20,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -3401,7 +3452,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F21" t="e">
         <f>VLOOKUP(B21,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -3426,10 +3477,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -3457,10 +3508,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -3488,10 +3539,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
@@ -3519,16 +3570,16 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C25" s="4">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -3556,16 +3607,16 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -3593,10 +3644,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C27" s="3">
         <v>4</v>
@@ -3624,10 +3675,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -3655,16 +3706,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -3692,10 +3743,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -3723,7 +3774,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F31" t="e">
         <f>VLOOKUP(B31,'Disciplines list'!$A$1:$B$6, 2,FALSE)</f>
@@ -3748,10 +3799,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
@@ -3779,10 +3830,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -3810,10 +3861,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
@@ -3857,7 +3908,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3865,7 +3916,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3873,7 +3924,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3881,7 +3932,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3889,7 +3940,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3897,7 +3948,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B6">
         <v>5</v>
